--- a/window/list.xlsx
+++ b/window/list.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldallara\Documents\ArgoX3mobile\CORE\window\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EEBDE-DF3A-497A-9053-3DFC0B01B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D84482-16F9-4C97-A835-5B90068DAC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
     <sheet name="Nuove videate in finestra" sheetId="2" r:id="rId2"/>
+    <sheet name="Bottoni di Finestra" sheetId="3" r:id="rId3"/>
+    <sheet name="Parametri Bottoni Finestra" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>Codice</t>
   </si>
@@ -34,9 +36,6 @@
     <t>Descrizione</t>
   </si>
   <si>
-    <t>Alias</t>
-  </si>
-  <si>
     <t>Cod.Att.</t>
   </si>
   <si>
@@ -44,13 +43,259 @@
   </si>
   <si>
     <t>Videata</t>
+  </si>
+  <si>
+    <t>Gestione</t>
+  </si>
+  <si>
+    <t>Testo</t>
+  </si>
+  <si>
+    <t>Azione</t>
+  </si>
+  <si>
+    <t>Cod att</t>
+  </si>
+  <si>
+    <t>Valore Parametro</t>
+  </si>
+  <si>
+    <t>Codice Finestra</t>
+  </si>
+  <si>
+    <t>Tipo (Custom/Standard)</t>
+  </si>
+  <si>
+    <t>Codice Parametro</t>
+  </si>
+  <si>
+    <t>Descrizione Parametro</t>
+  </si>
+  <si>
+    <t>Cod Att</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Tipo Finestra</t>
+  </si>
+  <si>
+    <t>Videata Testata</t>
+  </si>
+  <si>
+    <t>Videate (Schede)</t>
+  </si>
+  <si>
+    <t>Num Videata</t>
+  </si>
+  <si>
+    <t>YSMR</t>
+  </si>
+  <si>
+    <t>YAX3M*</t>
+  </si>
+  <si>
+    <t>Entrate Diverse</t>
+  </si>
+  <si>
+    <t>Supervisore</t>
+  </si>
+  <si>
+    <t>Diversi</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>YSMR1</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Validante</t>
+  </si>
+  <si>
+    <t>Crea</t>
+  </si>
+  <si>
+    <t>YCREAENT</t>
+  </si>
+  <si>
+    <t>Tipo (bottone) (Custom/Standard)</t>
+  </si>
+  <si>
+    <t>FCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPTDAT </t>
+  </si>
+  <si>
+    <t>TRSFAM</t>
+  </si>
+  <si>
+    <t>YAX3MRESP</t>
+  </si>
+  <si>
+    <t>YRESPONSE</t>
+  </si>
+  <si>
+    <t>ITMREF</t>
+  </si>
+  <si>
+    <t>STU</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>SERNUM</t>
+  </si>
+  <si>
+    <t>Codice/i Bottone</t>
+  </si>
+  <si>
+    <t>Sito</t>
+  </si>
+  <si>
+    <t>Data Registrazione</t>
+  </si>
+  <si>
+    <t>Famiglia Movimenti</t>
+  </si>
+  <si>
+    <t>Response ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Response azione</t>
+  </si>
+  <si>
+    <t>Cod Articolo</t>
+  </si>
+  <si>
+    <t>Unità Mag</t>
+  </si>
+  <si>
+    <t>Quantità UM</t>
+  </si>
+  <si>
+    <t>Ubicazione</t>
+  </si>
+  <si>
+    <t>QTYSTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCTYP </t>
+  </si>
+  <si>
+    <t>Tipo Ubicazione</t>
+  </si>
+  <si>
+    <t>Stato Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT </t>
+  </si>
+  <si>
+    <t>Lotto</t>
+  </si>
+  <si>
+    <t>Matricola</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>GYCLOB</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]FCY</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]IPTDAT</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]TRSFAM</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]ITMREF</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]STU</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]QTYSTU</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]LOC</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]LOCTYP</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]STA</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]LOT</t>
+  </si>
+  <si>
+    <t>[M:YSMR1]SERNUM</t>
+  </si>
+  <si>
+    <t>YSMO</t>
+  </si>
+  <si>
+    <t>Uscite Diverse</t>
+  </si>
+  <si>
+    <t>YSMO1</t>
+  </si>
+  <si>
+    <t>YSOH</t>
+  </si>
+  <si>
+    <t>YSOH1</t>
+  </si>
+  <si>
+    <t>YCALCGIAC</t>
+  </si>
+  <si>
+    <t>Ordini di Vendita *</t>
+  </si>
+  <si>
+    <t>Calcolo Giacenze*</t>
+  </si>
+  <si>
+    <t>YCALCGIAC1</t>
+  </si>
+  <si>
+    <t>YBPC</t>
+  </si>
+  <si>
+    <t>YVSOH</t>
+  </si>
+  <si>
+    <t>YVBPC</t>
+  </si>
+  <si>
+    <t>Creazione Cliente*</t>
+  </si>
+  <si>
+    <t>YVSOH2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +311,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -75,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -83,16 +334,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,32 +685,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -405,30 +921,408 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F694E480-D1C0-4306-B7E3-8547E8554411}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD419AD1-E9F0-41EE-B31E-22F4D8857574}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>